--- a/Employee Wellness Spreadsheet 2.xlsx
+++ b/Employee Wellness Spreadsheet 2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
   <si>
     <t>Group Number</t>
   </si>
@@ -175,9 +175,6 @@
     <t>12/15/2021</t>
   </si>
   <si>
-    <t>800969400-00</t>
-  </si>
-  <si>
     <t>Prows</t>
   </si>
   <si>
@@ -202,18 +199,45 @@
     <t>03/31/2022</t>
   </si>
   <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>Peterson</t>
+  </si>
+  <si>
+    <t>Luke</t>
+  </si>
+  <si>
     <t>11/06/2021</t>
   </si>
   <si>
     <t>02/13/2022</t>
   </si>
   <si>
+    <t>Schlachter</t>
+  </si>
+  <si>
+    <t>Margaret</t>
+  </si>
+  <si>
     <t>01/31/2022</t>
   </si>
   <si>
     <t>03/18/2022</t>
   </si>
   <si>
+    <t>Dole</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Madsen</t>
+  </si>
+  <si>
     <t>HEALTHY LIVING</t>
   </si>
   <si>
@@ -221,6 +245,18 @@
   </si>
   <si>
     <t>NON-HDHP</t>
+  </si>
+  <si>
+    <t>Townsend</t>
+  </si>
+  <si>
+    <t>Pete</t>
+  </si>
+  <si>
+    <t>McQuivy</t>
+  </si>
+  <si>
+    <t>Cassy</t>
   </si>
 </sst>
 </file>
@@ -296,12 +332,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="15"/>
+        <fgColor indexed="14"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -329,28 +365,28 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </bottom>
       <diagonal/>
     </border>
@@ -374,22 +410,84 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="11"/>
+      </right>
+      <top style="medium">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </right>
       <top style="medium">
         <color indexed="11"/>
@@ -401,13 +499,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </top>
       <bottom style="medium">
         <color indexed="11"/>
@@ -420,7 +518,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -439,10 +537,10 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -457,31 +555,55 @@
     <xf numFmtId="3" fontId="4" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -512,8 +634,8 @@
       <rgbColor rgb="ffcccccc"/>
       <rgbColor rgb="ffc0c0c0"/>
       <rgbColor rgb="ff949393"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -712,17 +834,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -750,10 +872,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1001,12 +1123,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1293,7 +1415,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1321,10 +1443,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1575,7 +1697,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:BV11"/>
+  <dimension ref="A1:BV33"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2042,20 +2164,18 @@
       <c r="B3" t="s" s="8">
         <v>38</v>
       </c>
-      <c r="C3" t="s" s="8">
+      <c r="C3" s="8"/>
+      <c r="D3" t="s" s="8">
         <v>54</v>
       </c>
-      <c r="D3" t="s" s="8">
+      <c r="E3" t="s" s="8">
         <v>55</v>
       </c>
-      <c r="E3" t="s" s="8">
+      <c r="F3" t="s" s="8">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s" s="8">
         <v>56</v>
-      </c>
-      <c r="F3" t="s" s="8">
-        <v>50</v>
-      </c>
-      <c r="G3" t="s" s="8">
-        <v>57</v>
       </c>
       <c r="H3" t="s" s="8">
         <v>44</v>
@@ -2085,10 +2205,10 @@
         <v>51</v>
       </c>
       <c r="Q3" t="s" s="9">
+        <v>57</v>
+      </c>
+      <c r="R3" t="s" s="9">
         <v>58</v>
-      </c>
-      <c r="R3" t="s" s="9">
-        <v>59</v>
       </c>
       <c r="S3" t="s" s="9">
         <v>51</v>
@@ -2241,8 +2361,8 @@
         <v>38</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" t="s" s="8">
@@ -2252,7 +2372,7 @@
         <v>45</v>
       </c>
       <c r="J4" t="s" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K4" t="s" s="8">
         <v>47</v>
@@ -2429,8 +2549,8 @@
         <v>38</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" t="s" s="8">
@@ -2440,7 +2560,7 @@
         <v>45</v>
       </c>
       <c r="J5" t="s" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K5" t="s" s="8">
         <v>47</v>
@@ -2469,7 +2589,7 @@
       <c r="S5" t="s" s="9">
         <v>50</v>
       </c>
-      <c r="T5" s="14"/>
+      <c r="T5" s="18"/>
       <c r="U5" t="s" s="9">
         <v>50</v>
       </c>
@@ -2615,8 +2735,8 @@
         <v>38</v>
       </c>
       <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" t="s" s="8">
@@ -2626,7 +2746,7 @@
         <v>45</v>
       </c>
       <c r="J6" t="s" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K6" t="s" s="8">
         <v>47</v>
@@ -2638,7 +2758,7 @@
         <v>49</v>
       </c>
       <c r="N6" t="s" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O6" t="s" s="9">
         <v>50</v>
@@ -2655,7 +2775,7 @@
       <c r="S6" t="s" s="9">
         <v>50</v>
       </c>
-      <c r="T6" s="14"/>
+      <c r="T6" s="18"/>
       <c r="U6" t="s" s="9">
         <v>50</v>
       </c>
@@ -2801,8 +2921,12 @@
         <v>38</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="D7" t="s" s="8">
+        <v>62</v>
+      </c>
+      <c r="E7" t="s" s="8">
+        <v>63</v>
+      </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" t="s" s="8">
@@ -2824,7 +2948,7 @@
         <v>49</v>
       </c>
       <c r="N7" t="s" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O7" t="s" s="9">
         <v>51</v>
@@ -2989,8 +3113,12 @@
         <v>38</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="D8" t="s" s="8">
+        <v>64</v>
+      </c>
+      <c r="E8" t="s" s="8">
+        <v>65</v>
+      </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" t="s" s="8">
@@ -3021,10 +3149,10 @@
         <v>51</v>
       </c>
       <c r="Q8" t="s" s="9">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="R8" t="s" s="9">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="S8" t="s" s="9">
         <v>51</v>
@@ -3177,8 +3305,12 @@
         <v>38</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="D9" t="s" s="8">
+        <v>68</v>
+      </c>
+      <c r="E9" t="s" s="8">
+        <v>69</v>
+      </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" t="s" s="8">
@@ -3209,10 +3341,10 @@
         <v>51</v>
       </c>
       <c r="Q9" t="s" s="9">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="R9" t="s" s="9">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="S9" t="s" s="9">
         <v>51</v>
@@ -3358,268 +3490,2054 @@
       <c r="BV9" s="7"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="15"/>
-      <c r="AE10" s="15"/>
-      <c r="AF10" s="15"/>
-      <c r="AG10" s="15"/>
-      <c r="AH10" s="15"/>
-      <c r="AI10" s="15"/>
-      <c r="AJ10" s="15"/>
-      <c r="AK10" s="15"/>
-      <c r="AL10" s="15"/>
-      <c r="AM10" s="15"/>
-      <c r="AN10" s="15"/>
-      <c r="AO10" s="15"/>
-      <c r="AP10" s="15"/>
-      <c r="AQ10" s="15"/>
-      <c r="AR10" s="15"/>
-      <c r="AS10" s="15"/>
-      <c r="AT10" s="15"/>
-      <c r="AU10" s="15"/>
-      <c r="AV10" s="15"/>
-      <c r="AW10" s="15"/>
-      <c r="AX10" s="15"/>
-      <c r="AY10" s="15"/>
-      <c r="AZ10" s="15"/>
-      <c r="BA10" s="15"/>
-      <c r="BB10" s="15"/>
-      <c r="BC10" s="15"/>
-      <c r="BD10" s="15"/>
-      <c r="BE10" s="15"/>
-      <c r="BF10" s="15"/>
-      <c r="BG10" s="15"/>
-      <c r="BH10" s="15"/>
-      <c r="BI10" s="15"/>
-      <c r="BJ10" s="16"/>
-      <c r="BK10" s="16"/>
-      <c r="BL10" s="16"/>
-      <c r="BM10" s="16"/>
-      <c r="BN10" s="16"/>
-      <c r="BO10" s="16"/>
-      <c r="BP10" s="16"/>
-      <c r="BQ10" s="16"/>
-      <c r="BR10" s="16"/>
-      <c r="BS10" s="16"/>
-      <c r="BT10" s="16"/>
-      <c r="BU10" s="16"/>
-      <c r="BV10" s="16"/>
+      <c r="A10" t="s" s="21">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s" s="21">
+        <v>38</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" t="s" s="23">
+        <v>72</v>
+      </c>
+      <c r="E10" t="s" s="23">
+        <v>73</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" t="s" s="21">
+        <v>46</v>
+      </c>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="22"/>
+      <c r="AH10" s="22"/>
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="22"/>
+      <c r="AK10" s="22"/>
+      <c r="AL10" s="22"/>
+      <c r="AM10" s="22"/>
+      <c r="AN10" s="22"/>
+      <c r="AO10" s="22"/>
+      <c r="AP10" s="22"/>
+      <c r="AQ10" s="22"/>
+      <c r="AR10" s="22"/>
+      <c r="AS10" s="22"/>
+      <c r="AT10" s="22"/>
+      <c r="AU10" s="22"/>
+      <c r="AV10" s="22"/>
+      <c r="AW10" s="22"/>
+      <c r="AX10" s="22"/>
+      <c r="AY10" s="22"/>
+      <c r="AZ10" s="22"/>
+      <c r="BA10" s="22"/>
+      <c r="BB10" s="22"/>
+      <c r="BC10" s="22"/>
+      <c r="BD10" s="22"/>
+      <c r="BE10" s="22"/>
+      <c r="BF10" s="22"/>
+      <c r="BG10" s="22"/>
+      <c r="BH10" s="22"/>
+      <c r="BI10" s="22"/>
+      <c r="BJ10" s="24"/>
+      <c r="BK10" s="24"/>
+      <c r="BL10" s="24"/>
+      <c r="BM10" s="24"/>
+      <c r="BN10" s="24"/>
+      <c r="BO10" s="24"/>
+      <c r="BP10" s="24"/>
+      <c r="BQ10" s="24"/>
+      <c r="BR10" s="24"/>
+      <c r="BS10" s="24"/>
+      <c r="BT10" s="24"/>
+      <c r="BU10" s="24"/>
+      <c r="BV10" s="24"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" t="s" s="17">
+      <c r="A11" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="B11" t="s" s="17">
+      <c r="B11" t="s" s="8">
         <v>38</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" t="s" s="17">
-        <v>50</v>
-      </c>
-      <c r="G11" s="18"/>
-      <c r="H11" t="s" s="17">
-        <v>67</v>
-      </c>
-      <c r="I11" t="s" s="17">
-        <v>68</v>
-      </c>
-      <c r="J11" t="s" s="17">
+      <c r="C11" s="25"/>
+      <c r="D11" t="s" s="26">
+        <v>74</v>
+      </c>
+      <c r="E11" t="s" s="26">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s" s="26">
+        <v>50</v>
+      </c>
+      <c r="G11" s="25"/>
+      <c r="H11" t="s" s="26">
+        <v>75</v>
+      </c>
+      <c r="I11" t="s" s="26">
+        <v>76</v>
+      </c>
+      <c r="J11" t="s" s="8">
         <v>46</v>
       </c>
-      <c r="K11" t="s" s="17">
-        <v>69</v>
-      </c>
-      <c r="L11" t="s" s="17">
+      <c r="K11" t="s" s="26">
+        <v>77</v>
+      </c>
+      <c r="L11" t="s" s="26">
         <v>48</v>
       </c>
-      <c r="M11" t="s" s="17">
+      <c r="M11" t="s" s="26">
         <v>49</v>
       </c>
-      <c r="N11" t="s" s="17">
-        <v>50</v>
-      </c>
-      <c r="O11" t="s" s="19">
-        <v>51</v>
-      </c>
-      <c r="P11" t="s" s="19">
-        <v>51</v>
-      </c>
-      <c r="Q11" t="s" s="19">
-        <v>50</v>
-      </c>
-      <c r="R11" t="s" s="19">
-        <v>50</v>
-      </c>
-      <c r="S11" t="s" s="19">
-        <v>50</v>
-      </c>
-      <c r="T11" s="20"/>
-      <c r="U11" t="s" s="19">
-        <v>51</v>
-      </c>
-      <c r="V11" s="21">
+      <c r="N11" t="s" s="26">
+        <v>50</v>
+      </c>
+      <c r="O11" t="s" s="27">
+        <v>51</v>
+      </c>
+      <c r="P11" t="s" s="27">
+        <v>51</v>
+      </c>
+      <c r="Q11" t="s" s="27">
+        <v>50</v>
+      </c>
+      <c r="R11" t="s" s="27">
+        <v>50</v>
+      </c>
+      <c r="S11" t="s" s="27">
+        <v>50</v>
+      </c>
+      <c r="T11" s="28"/>
+      <c r="U11" t="s" s="27">
+        <v>51</v>
+      </c>
+      <c r="V11" s="29">
         <v>0</v>
       </c>
-      <c r="W11" t="s" s="19">
-        <v>50</v>
-      </c>
-      <c r="X11" t="s" s="19">
-        <v>50</v>
-      </c>
-      <c r="Y11" t="s" s="19">
-        <v>50</v>
-      </c>
-      <c r="Z11" t="s" s="19">
-        <v>50</v>
-      </c>
-      <c r="AA11" t="s" s="19">
-        <v>50</v>
-      </c>
-      <c r="AB11" t="s" s="19">
-        <v>50</v>
-      </c>
-      <c r="AC11" t="s" s="19">
-        <v>50</v>
-      </c>
-      <c r="AD11" t="s" s="19">
-        <v>50</v>
-      </c>
-      <c r="AE11" t="s" s="19">
-        <v>50</v>
-      </c>
-      <c r="AF11" t="s" s="19">
-        <v>50</v>
-      </c>
-      <c r="AG11" t="s" s="19">
-        <v>50</v>
-      </c>
-      <c r="AH11" t="s" s="19">
-        <v>50</v>
-      </c>
-      <c r="AI11" s="21">
+      <c r="W11" t="s" s="27">
+        <v>50</v>
+      </c>
+      <c r="X11" t="s" s="27">
+        <v>50</v>
+      </c>
+      <c r="Y11" t="s" s="27">
+        <v>50</v>
+      </c>
+      <c r="Z11" t="s" s="27">
+        <v>50</v>
+      </c>
+      <c r="AA11" t="s" s="27">
+        <v>50</v>
+      </c>
+      <c r="AB11" t="s" s="27">
+        <v>50</v>
+      </c>
+      <c r="AC11" t="s" s="27">
+        <v>50</v>
+      </c>
+      <c r="AD11" t="s" s="27">
+        <v>50</v>
+      </c>
+      <c r="AE11" t="s" s="27">
+        <v>50</v>
+      </c>
+      <c r="AF11" t="s" s="27">
+        <v>50</v>
+      </c>
+      <c r="AG11" t="s" s="27">
+        <v>50</v>
+      </c>
+      <c r="AH11" t="s" s="27">
+        <v>50</v>
+      </c>
+      <c r="AI11" s="29">
         <v>0</v>
       </c>
-      <c r="AJ11" t="s" s="19">
-        <v>50</v>
-      </c>
-      <c r="AK11" t="s" s="19">
-        <v>50</v>
-      </c>
-      <c r="AL11" t="s" s="19">
-        <v>50</v>
-      </c>
-      <c r="AM11" t="s" s="19">
-        <v>50</v>
-      </c>
-      <c r="AN11" t="s" s="19">
-        <v>50</v>
-      </c>
-      <c r="AO11" t="s" s="19">
-        <v>50</v>
-      </c>
-      <c r="AP11" t="s" s="19">
-        <v>50</v>
-      </c>
-      <c r="AQ11" t="s" s="19">
-        <v>50</v>
-      </c>
-      <c r="AR11" t="s" s="19">
-        <v>50</v>
-      </c>
-      <c r="AS11" t="s" s="19">
-        <v>50</v>
-      </c>
-      <c r="AT11" t="s" s="19">
-        <v>50</v>
-      </c>
-      <c r="AU11" t="s" s="19">
-        <v>50</v>
-      </c>
-      <c r="AV11" s="21">
+      <c r="AJ11" t="s" s="27">
+        <v>50</v>
+      </c>
+      <c r="AK11" t="s" s="27">
+        <v>50</v>
+      </c>
+      <c r="AL11" t="s" s="27">
+        <v>50</v>
+      </c>
+      <c r="AM11" t="s" s="27">
+        <v>50</v>
+      </c>
+      <c r="AN11" t="s" s="27">
+        <v>50</v>
+      </c>
+      <c r="AO11" t="s" s="27">
+        <v>50</v>
+      </c>
+      <c r="AP11" t="s" s="27">
+        <v>50</v>
+      </c>
+      <c r="AQ11" t="s" s="27">
+        <v>50</v>
+      </c>
+      <c r="AR11" t="s" s="27">
+        <v>50</v>
+      </c>
+      <c r="AS11" t="s" s="27">
+        <v>50</v>
+      </c>
+      <c r="AT11" t="s" s="27">
+        <v>50</v>
+      </c>
+      <c r="AU11" t="s" s="27">
+        <v>50</v>
+      </c>
+      <c r="AV11" s="29">
         <v>0</v>
       </c>
-      <c r="AW11" t="s" s="19">
-        <v>50</v>
-      </c>
-      <c r="AX11" t="s" s="19">
-        <v>50</v>
-      </c>
-      <c r="AY11" t="s" s="19">
-        <v>50</v>
-      </c>
-      <c r="AZ11" t="s" s="19">
-        <v>50</v>
-      </c>
-      <c r="BA11" t="s" s="19">
-        <v>50</v>
-      </c>
-      <c r="BB11" t="s" s="19">
-        <v>50</v>
-      </c>
-      <c r="BC11" t="s" s="19">
-        <v>50</v>
-      </c>
-      <c r="BD11" t="s" s="19">
-        <v>50</v>
-      </c>
-      <c r="BE11" t="s" s="19">
-        <v>50</v>
-      </c>
-      <c r="BF11" t="s" s="19">
-        <v>50</v>
-      </c>
-      <c r="BG11" t="s" s="19">
-        <v>50</v>
-      </c>
-      <c r="BH11" t="s" s="19">
-        <v>50</v>
-      </c>
-      <c r="BI11" s="21">
+      <c r="AW11" t="s" s="27">
+        <v>50</v>
+      </c>
+      <c r="AX11" t="s" s="27">
+        <v>50</v>
+      </c>
+      <c r="AY11" t="s" s="27">
+        <v>50</v>
+      </c>
+      <c r="AZ11" t="s" s="27">
+        <v>50</v>
+      </c>
+      <c r="BA11" t="s" s="27">
+        <v>50</v>
+      </c>
+      <c r="BB11" t="s" s="27">
+        <v>50</v>
+      </c>
+      <c r="BC11" t="s" s="27">
+        <v>50</v>
+      </c>
+      <c r="BD11" t="s" s="27">
+        <v>50</v>
+      </c>
+      <c r="BE11" t="s" s="27">
+        <v>50</v>
+      </c>
+      <c r="BF11" t="s" s="27">
+        <v>50</v>
+      </c>
+      <c r="BG11" t="s" s="27">
+        <v>50</v>
+      </c>
+      <c r="BH11" t="s" s="27">
+        <v>50</v>
+      </c>
+      <c r="BI11" s="29">
         <v>0</v>
       </c>
-      <c r="BJ11" s="22"/>
-      <c r="BK11" s="22"/>
-      <c r="BL11" s="22"/>
-      <c r="BM11" s="22"/>
-      <c r="BN11" s="22"/>
-      <c r="BO11" s="22"/>
-      <c r="BP11" s="22"/>
-      <c r="BQ11" s="22"/>
-      <c r="BR11" s="22"/>
-      <c r="BS11" s="22"/>
-      <c r="BT11" s="22"/>
-      <c r="BU11" s="22"/>
-      <c r="BV11" s="22"/>
+      <c r="BJ11" s="30"/>
+      <c r="BK11" s="30"/>
+      <c r="BL11" s="30"/>
+      <c r="BM11" s="30"/>
+      <c r="BN11" s="30"/>
+      <c r="BO11" s="30"/>
+      <c r="BP11" s="30"/>
+      <c r="BQ11" s="30"/>
+      <c r="BR11" s="30"/>
+      <c r="BS11" s="30"/>
+      <c r="BT11" s="30"/>
+      <c r="BU11" s="30"/>
+      <c r="BV11" s="30"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" t="s" s="26">
+        <v>78</v>
+      </c>
+      <c r="E12" t="s" s="26">
+        <v>79</v>
+      </c>
+      <c r="F12" s="26"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" t="s" s="8">
+        <v>46</v>
+      </c>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="27"/>
+      <c r="AG12" s="27"/>
+      <c r="AH12" s="27"/>
+      <c r="AI12" s="29"/>
+      <c r="AJ12" s="27"/>
+      <c r="AK12" s="27"/>
+      <c r="AL12" s="27"/>
+      <c r="AM12" s="27"/>
+      <c r="AN12" s="27"/>
+      <c r="AO12" s="27"/>
+      <c r="AP12" s="27"/>
+      <c r="AQ12" s="27"/>
+      <c r="AR12" s="27"/>
+      <c r="AS12" s="27"/>
+      <c r="AT12" s="27"/>
+      <c r="AU12" s="27"/>
+      <c r="AV12" s="29"/>
+      <c r="AW12" s="27"/>
+      <c r="AX12" s="27"/>
+      <c r="AY12" s="27"/>
+      <c r="AZ12" s="27"/>
+      <c r="BA12" s="27"/>
+      <c r="BB12" s="27"/>
+      <c r="BC12" s="27"/>
+      <c r="BD12" s="27"/>
+      <c r="BE12" s="27"/>
+      <c r="BF12" s="27"/>
+      <c r="BG12" s="27"/>
+      <c r="BH12" s="27"/>
+      <c r="BI12" s="29"/>
+      <c r="BJ12" s="30"/>
+      <c r="BK12" s="30"/>
+      <c r="BL12" s="30"/>
+      <c r="BM12" s="30"/>
+      <c r="BN12" s="30"/>
+      <c r="BO12" s="30"/>
+      <c r="BP12" s="30"/>
+      <c r="BQ12" s="30"/>
+      <c r="BR12" s="30"/>
+      <c r="BS12" s="30"/>
+      <c r="BT12" s="30"/>
+      <c r="BU12" s="30"/>
+      <c r="BV12" s="30"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" t="s" s="26">
+        <v>80</v>
+      </c>
+      <c r="E13" t="s" s="26">
+        <v>81</v>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" t="s" s="8">
+        <v>46</v>
+      </c>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="27"/>
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="27"/>
+      <c r="AH13" s="27"/>
+      <c r="AI13" s="29"/>
+      <c r="AJ13" s="27"/>
+      <c r="AK13" s="27"/>
+      <c r="AL13" s="27"/>
+      <c r="AM13" s="27"/>
+      <c r="AN13" s="27"/>
+      <c r="AO13" s="27"/>
+      <c r="AP13" s="27"/>
+      <c r="AQ13" s="27"/>
+      <c r="AR13" s="27"/>
+      <c r="AS13" s="27"/>
+      <c r="AT13" s="27"/>
+      <c r="AU13" s="27"/>
+      <c r="AV13" s="29"/>
+      <c r="AW13" s="27"/>
+      <c r="AX13" s="27"/>
+      <c r="AY13" s="27"/>
+      <c r="AZ13" s="27"/>
+      <c r="BA13" s="27"/>
+      <c r="BB13" s="27"/>
+      <c r="BC13" s="27"/>
+      <c r="BD13" s="27"/>
+      <c r="BE13" s="27"/>
+      <c r="BF13" s="27"/>
+      <c r="BG13" s="27"/>
+      <c r="BH13" s="27"/>
+      <c r="BI13" s="29"/>
+      <c r="BJ13" s="30"/>
+      <c r="BK13" s="30"/>
+      <c r="BL13" s="30"/>
+      <c r="BM13" s="30"/>
+      <c r="BN13" s="30"/>
+      <c r="BO13" s="30"/>
+      <c r="BP13" s="30"/>
+      <c r="BQ13" s="30"/>
+      <c r="BR13" s="30"/>
+      <c r="BS13" s="30"/>
+      <c r="BT13" s="30"/>
+      <c r="BU13" s="30"/>
+      <c r="BV13" s="30"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="27"/>
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="27"/>
+      <c r="AH14" s="27"/>
+      <c r="AI14" s="29"/>
+      <c r="AJ14" s="27"/>
+      <c r="AK14" s="27"/>
+      <c r="AL14" s="27"/>
+      <c r="AM14" s="27"/>
+      <c r="AN14" s="27"/>
+      <c r="AO14" s="27"/>
+      <c r="AP14" s="27"/>
+      <c r="AQ14" s="27"/>
+      <c r="AR14" s="27"/>
+      <c r="AS14" s="27"/>
+      <c r="AT14" s="27"/>
+      <c r="AU14" s="27"/>
+      <c r="AV14" s="29"/>
+      <c r="AW14" s="27"/>
+      <c r="AX14" s="27"/>
+      <c r="AY14" s="27"/>
+      <c r="AZ14" s="27"/>
+      <c r="BA14" s="27"/>
+      <c r="BB14" s="27"/>
+      <c r="BC14" s="27"/>
+      <c r="BD14" s="27"/>
+      <c r="BE14" s="27"/>
+      <c r="BF14" s="27"/>
+      <c r="BG14" s="27"/>
+      <c r="BH14" s="27"/>
+      <c r="BI14" s="29"/>
+      <c r="BJ14" s="30"/>
+      <c r="BK14" s="30"/>
+      <c r="BL14" s="30"/>
+      <c r="BM14" s="30"/>
+      <c r="BN14" s="30"/>
+      <c r="BO14" s="30"/>
+      <c r="BP14" s="30"/>
+      <c r="BQ14" s="30"/>
+      <c r="BR14" s="30"/>
+      <c r="BS14" s="30"/>
+      <c r="BT14" s="30"/>
+      <c r="BU14" s="30"/>
+      <c r="BV14" s="30"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="27"/>
+      <c r="AH15" s="27"/>
+      <c r="AI15" s="29"/>
+      <c r="AJ15" s="27"/>
+      <c r="AK15" s="27"/>
+      <c r="AL15" s="27"/>
+      <c r="AM15" s="27"/>
+      <c r="AN15" s="27"/>
+      <c r="AO15" s="27"/>
+      <c r="AP15" s="27"/>
+      <c r="AQ15" s="27"/>
+      <c r="AR15" s="27"/>
+      <c r="AS15" s="27"/>
+      <c r="AT15" s="27"/>
+      <c r="AU15" s="27"/>
+      <c r="AV15" s="29"/>
+      <c r="AW15" s="27"/>
+      <c r="AX15" s="27"/>
+      <c r="AY15" s="27"/>
+      <c r="AZ15" s="27"/>
+      <c r="BA15" s="27"/>
+      <c r="BB15" s="27"/>
+      <c r="BC15" s="27"/>
+      <c r="BD15" s="27"/>
+      <c r="BE15" s="27"/>
+      <c r="BF15" s="27"/>
+      <c r="BG15" s="27"/>
+      <c r="BH15" s="27"/>
+      <c r="BI15" s="29"/>
+      <c r="BJ15" s="30"/>
+      <c r="BK15" s="30"/>
+      <c r="BL15" s="30"/>
+      <c r="BM15" s="30"/>
+      <c r="BN15" s="30"/>
+      <c r="BO15" s="30"/>
+      <c r="BP15" s="30"/>
+      <c r="BQ15" s="30"/>
+      <c r="BR15" s="30"/>
+      <c r="BS15" s="30"/>
+      <c r="BT15" s="30"/>
+      <c r="BU15" s="30"/>
+      <c r="BV15" s="30"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="27"/>
+      <c r="AH16" s="27"/>
+      <c r="AI16" s="29"/>
+      <c r="AJ16" s="27"/>
+      <c r="AK16" s="27"/>
+      <c r="AL16" s="27"/>
+      <c r="AM16" s="27"/>
+      <c r="AN16" s="27"/>
+      <c r="AO16" s="27"/>
+      <c r="AP16" s="27"/>
+      <c r="AQ16" s="27"/>
+      <c r="AR16" s="27"/>
+      <c r="AS16" s="27"/>
+      <c r="AT16" s="27"/>
+      <c r="AU16" s="27"/>
+      <c r="AV16" s="29"/>
+      <c r="AW16" s="27"/>
+      <c r="AX16" s="27"/>
+      <c r="AY16" s="27"/>
+      <c r="AZ16" s="27"/>
+      <c r="BA16" s="27"/>
+      <c r="BB16" s="27"/>
+      <c r="BC16" s="27"/>
+      <c r="BD16" s="27"/>
+      <c r="BE16" s="27"/>
+      <c r="BF16" s="27"/>
+      <c r="BG16" s="27"/>
+      <c r="BH16" s="27"/>
+      <c r="BI16" s="29"/>
+      <c r="BJ16" s="30"/>
+      <c r="BK16" s="30"/>
+      <c r="BL16" s="30"/>
+      <c r="BM16" s="30"/>
+      <c r="BN16" s="30"/>
+      <c r="BO16" s="30"/>
+      <c r="BP16" s="30"/>
+      <c r="BQ16" s="30"/>
+      <c r="BR16" s="30"/>
+      <c r="BS16" s="30"/>
+      <c r="BT16" s="30"/>
+      <c r="BU16" s="30"/>
+      <c r="BV16" s="30"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="27"/>
+      <c r="AH17" s="27"/>
+      <c r="AI17" s="29"/>
+      <c r="AJ17" s="27"/>
+      <c r="AK17" s="27"/>
+      <c r="AL17" s="27"/>
+      <c r="AM17" s="27"/>
+      <c r="AN17" s="27"/>
+      <c r="AO17" s="27"/>
+      <c r="AP17" s="27"/>
+      <c r="AQ17" s="27"/>
+      <c r="AR17" s="27"/>
+      <c r="AS17" s="27"/>
+      <c r="AT17" s="27"/>
+      <c r="AU17" s="27"/>
+      <c r="AV17" s="29"/>
+      <c r="AW17" s="27"/>
+      <c r="AX17" s="27"/>
+      <c r="AY17" s="27"/>
+      <c r="AZ17" s="27"/>
+      <c r="BA17" s="27"/>
+      <c r="BB17" s="27"/>
+      <c r="BC17" s="27"/>
+      <c r="BD17" s="27"/>
+      <c r="BE17" s="27"/>
+      <c r="BF17" s="27"/>
+      <c r="BG17" s="27"/>
+      <c r="BH17" s="27"/>
+      <c r="BI17" s="29"/>
+      <c r="BJ17" s="30"/>
+      <c r="BK17" s="30"/>
+      <c r="BL17" s="30"/>
+      <c r="BM17" s="30"/>
+      <c r="BN17" s="30"/>
+      <c r="BO17" s="30"/>
+      <c r="BP17" s="30"/>
+      <c r="BQ17" s="30"/>
+      <c r="BR17" s="30"/>
+      <c r="BS17" s="30"/>
+      <c r="BT17" s="30"/>
+      <c r="BU17" s="30"/>
+      <c r="BV17" s="30"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27"/>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="27"/>
+      <c r="AF18" s="27"/>
+      <c r="AG18" s="27"/>
+      <c r="AH18" s="27"/>
+      <c r="AI18" s="29"/>
+      <c r="AJ18" s="27"/>
+      <c r="AK18" s="27"/>
+      <c r="AL18" s="27"/>
+      <c r="AM18" s="27"/>
+      <c r="AN18" s="27"/>
+      <c r="AO18" s="27"/>
+      <c r="AP18" s="27"/>
+      <c r="AQ18" s="27"/>
+      <c r="AR18" s="27"/>
+      <c r="AS18" s="27"/>
+      <c r="AT18" s="27"/>
+      <c r="AU18" s="27"/>
+      <c r="AV18" s="29"/>
+      <c r="AW18" s="27"/>
+      <c r="AX18" s="27"/>
+      <c r="AY18" s="27"/>
+      <c r="AZ18" s="27"/>
+      <c r="BA18" s="27"/>
+      <c r="BB18" s="27"/>
+      <c r="BC18" s="27"/>
+      <c r="BD18" s="27"/>
+      <c r="BE18" s="27"/>
+      <c r="BF18" s="27"/>
+      <c r="BG18" s="27"/>
+      <c r="BH18" s="27"/>
+      <c r="BI18" s="29"/>
+      <c r="BJ18" s="30"/>
+      <c r="BK18" s="30"/>
+      <c r="BL18" s="30"/>
+      <c r="BM18" s="30"/>
+      <c r="BN18" s="30"/>
+      <c r="BO18" s="30"/>
+      <c r="BP18" s="30"/>
+      <c r="BQ18" s="30"/>
+      <c r="BR18" s="30"/>
+      <c r="BS18" s="30"/>
+      <c r="BT18" s="30"/>
+      <c r="BU18" s="30"/>
+      <c r="BV18" s="30"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="27"/>
+      <c r="AH19" s="27"/>
+      <c r="AI19" s="29"/>
+      <c r="AJ19" s="27"/>
+      <c r="AK19" s="27"/>
+      <c r="AL19" s="27"/>
+      <c r="AM19" s="27"/>
+      <c r="AN19" s="27"/>
+      <c r="AO19" s="27"/>
+      <c r="AP19" s="27"/>
+      <c r="AQ19" s="27"/>
+      <c r="AR19" s="27"/>
+      <c r="AS19" s="27"/>
+      <c r="AT19" s="27"/>
+      <c r="AU19" s="27"/>
+      <c r="AV19" s="29"/>
+      <c r="AW19" s="27"/>
+      <c r="AX19" s="27"/>
+      <c r="AY19" s="27"/>
+      <c r="AZ19" s="27"/>
+      <c r="BA19" s="27"/>
+      <c r="BB19" s="27"/>
+      <c r="BC19" s="27"/>
+      <c r="BD19" s="27"/>
+      <c r="BE19" s="27"/>
+      <c r="BF19" s="27"/>
+      <c r="BG19" s="27"/>
+      <c r="BH19" s="27"/>
+      <c r="BI19" s="29"/>
+      <c r="BJ19" s="30"/>
+      <c r="BK19" s="30"/>
+      <c r="BL19" s="30"/>
+      <c r="BM19" s="30"/>
+      <c r="BN19" s="30"/>
+      <c r="BO19" s="30"/>
+      <c r="BP19" s="30"/>
+      <c r="BQ19" s="30"/>
+      <c r="BR19" s="30"/>
+      <c r="BS19" s="30"/>
+      <c r="BT19" s="30"/>
+      <c r="BU19" s="30"/>
+      <c r="BV19" s="30"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="27"/>
+      <c r="AG20" s="27"/>
+      <c r="AH20" s="27"/>
+      <c r="AI20" s="29"/>
+      <c r="AJ20" s="27"/>
+      <c r="AK20" s="27"/>
+      <c r="AL20" s="27"/>
+      <c r="AM20" s="27"/>
+      <c r="AN20" s="27"/>
+      <c r="AO20" s="27"/>
+      <c r="AP20" s="27"/>
+      <c r="AQ20" s="27"/>
+      <c r="AR20" s="27"/>
+      <c r="AS20" s="27"/>
+      <c r="AT20" s="27"/>
+      <c r="AU20" s="27"/>
+      <c r="AV20" s="29"/>
+      <c r="AW20" s="27"/>
+      <c r="AX20" s="27"/>
+      <c r="AY20" s="27"/>
+      <c r="AZ20" s="27"/>
+      <c r="BA20" s="27"/>
+      <c r="BB20" s="27"/>
+      <c r="BC20" s="27"/>
+      <c r="BD20" s="27"/>
+      <c r="BE20" s="27"/>
+      <c r="BF20" s="27"/>
+      <c r="BG20" s="27"/>
+      <c r="BH20" s="27"/>
+      <c r="BI20" s="29"/>
+      <c r="BJ20" s="30"/>
+      <c r="BK20" s="30"/>
+      <c r="BL20" s="30"/>
+      <c r="BM20" s="30"/>
+      <c r="BN20" s="30"/>
+      <c r="BO20" s="30"/>
+      <c r="BP20" s="30"/>
+      <c r="BQ20" s="30"/>
+      <c r="BR20" s="30"/>
+      <c r="BS20" s="30"/>
+      <c r="BT20" s="30"/>
+      <c r="BU20" s="30"/>
+      <c r="BV20" s="30"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="27"/>
+      <c r="AG21" s="27"/>
+      <c r="AH21" s="27"/>
+      <c r="AI21" s="29"/>
+      <c r="AJ21" s="27"/>
+      <c r="AK21" s="27"/>
+      <c r="AL21" s="27"/>
+      <c r="AM21" s="27"/>
+      <c r="AN21" s="27"/>
+      <c r="AO21" s="27"/>
+      <c r="AP21" s="27"/>
+      <c r="AQ21" s="27"/>
+      <c r="AR21" s="27"/>
+      <c r="AS21" s="27"/>
+      <c r="AT21" s="27"/>
+      <c r="AU21" s="27"/>
+      <c r="AV21" s="29"/>
+      <c r="AW21" s="27"/>
+      <c r="AX21" s="27"/>
+      <c r="AY21" s="27"/>
+      <c r="AZ21" s="27"/>
+      <c r="BA21" s="27"/>
+      <c r="BB21" s="27"/>
+      <c r="BC21" s="27"/>
+      <c r="BD21" s="27"/>
+      <c r="BE21" s="27"/>
+      <c r="BF21" s="27"/>
+      <c r="BG21" s="27"/>
+      <c r="BH21" s="27"/>
+      <c r="BI21" s="29"/>
+      <c r="BJ21" s="30"/>
+      <c r="BK21" s="30"/>
+      <c r="BL21" s="30"/>
+      <c r="BM21" s="30"/>
+      <c r="BN21" s="30"/>
+      <c r="BO21" s="30"/>
+      <c r="BP21" s="30"/>
+      <c r="BQ21" s="30"/>
+      <c r="BR21" s="30"/>
+      <c r="BS21" s="30"/>
+      <c r="BT21" s="30"/>
+      <c r="BU21" s="30"/>
+      <c r="BV21" s="30"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="27"/>
+      <c r="AI22" s="29"/>
+      <c r="AJ22" s="27"/>
+      <c r="AK22" s="27"/>
+      <c r="AL22" s="27"/>
+      <c r="AM22" s="27"/>
+      <c r="AN22" s="27"/>
+      <c r="AO22" s="27"/>
+      <c r="AP22" s="27"/>
+      <c r="AQ22" s="27"/>
+      <c r="AR22" s="27"/>
+      <c r="AS22" s="27"/>
+      <c r="AT22" s="27"/>
+      <c r="AU22" s="27"/>
+      <c r="AV22" s="29"/>
+      <c r="AW22" s="27"/>
+      <c r="AX22" s="27"/>
+      <c r="AY22" s="27"/>
+      <c r="AZ22" s="27"/>
+      <c r="BA22" s="27"/>
+      <c r="BB22" s="27"/>
+      <c r="BC22" s="27"/>
+      <c r="BD22" s="27"/>
+      <c r="BE22" s="27"/>
+      <c r="BF22" s="27"/>
+      <c r="BG22" s="27"/>
+      <c r="BH22" s="27"/>
+      <c r="BI22" s="29"/>
+      <c r="BJ22" s="30"/>
+      <c r="BK22" s="30"/>
+      <c r="BL22" s="30"/>
+      <c r="BM22" s="30"/>
+      <c r="BN22" s="30"/>
+      <c r="BO22" s="30"/>
+      <c r="BP22" s="30"/>
+      <c r="BQ22" s="30"/>
+      <c r="BR22" s="30"/>
+      <c r="BS22" s="30"/>
+      <c r="BT22" s="30"/>
+      <c r="BU22" s="30"/>
+      <c r="BV22" s="30"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="27"/>
+      <c r="AH23" s="27"/>
+      <c r="AI23" s="29"/>
+      <c r="AJ23" s="27"/>
+      <c r="AK23" s="27"/>
+      <c r="AL23" s="27"/>
+      <c r="AM23" s="27"/>
+      <c r="AN23" s="27"/>
+      <c r="AO23" s="27"/>
+      <c r="AP23" s="27"/>
+      <c r="AQ23" s="27"/>
+      <c r="AR23" s="27"/>
+      <c r="AS23" s="27"/>
+      <c r="AT23" s="27"/>
+      <c r="AU23" s="27"/>
+      <c r="AV23" s="29"/>
+      <c r="AW23" s="27"/>
+      <c r="AX23" s="27"/>
+      <c r="AY23" s="27"/>
+      <c r="AZ23" s="27"/>
+      <c r="BA23" s="27"/>
+      <c r="BB23" s="27"/>
+      <c r="BC23" s="27"/>
+      <c r="BD23" s="27"/>
+      <c r="BE23" s="27"/>
+      <c r="BF23" s="27"/>
+      <c r="BG23" s="27"/>
+      <c r="BH23" s="27"/>
+      <c r="BI23" s="29"/>
+      <c r="BJ23" s="30"/>
+      <c r="BK23" s="30"/>
+      <c r="BL23" s="30"/>
+      <c r="BM23" s="30"/>
+      <c r="BN23" s="30"/>
+      <c r="BO23" s="30"/>
+      <c r="BP23" s="30"/>
+      <c r="BQ23" s="30"/>
+      <c r="BR23" s="30"/>
+      <c r="BS23" s="30"/>
+      <c r="BT23" s="30"/>
+      <c r="BU23" s="30"/>
+      <c r="BV23" s="30"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="27"/>
+      <c r="AF24" s="27"/>
+      <c r="AG24" s="27"/>
+      <c r="AH24" s="27"/>
+      <c r="AI24" s="29"/>
+      <c r="AJ24" s="27"/>
+      <c r="AK24" s="27"/>
+      <c r="AL24" s="27"/>
+      <c r="AM24" s="27"/>
+      <c r="AN24" s="27"/>
+      <c r="AO24" s="27"/>
+      <c r="AP24" s="27"/>
+      <c r="AQ24" s="27"/>
+      <c r="AR24" s="27"/>
+      <c r="AS24" s="27"/>
+      <c r="AT24" s="27"/>
+      <c r="AU24" s="27"/>
+      <c r="AV24" s="29"/>
+      <c r="AW24" s="27"/>
+      <c r="AX24" s="27"/>
+      <c r="AY24" s="27"/>
+      <c r="AZ24" s="27"/>
+      <c r="BA24" s="27"/>
+      <c r="BB24" s="27"/>
+      <c r="BC24" s="27"/>
+      <c r="BD24" s="27"/>
+      <c r="BE24" s="27"/>
+      <c r="BF24" s="27"/>
+      <c r="BG24" s="27"/>
+      <c r="BH24" s="27"/>
+      <c r="BI24" s="29"/>
+      <c r="BJ24" s="30"/>
+      <c r="BK24" s="30"/>
+      <c r="BL24" s="30"/>
+      <c r="BM24" s="30"/>
+      <c r="BN24" s="30"/>
+      <c r="BO24" s="30"/>
+      <c r="BP24" s="30"/>
+      <c r="BQ24" s="30"/>
+      <c r="BR24" s="30"/>
+      <c r="BS24" s="30"/>
+      <c r="BT24" s="30"/>
+      <c r="BU24" s="30"/>
+      <c r="BV24" s="30"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="27"/>
+      <c r="AH25" s="27"/>
+      <c r="AI25" s="29"/>
+      <c r="AJ25" s="27"/>
+      <c r="AK25" s="27"/>
+      <c r="AL25" s="27"/>
+      <c r="AM25" s="27"/>
+      <c r="AN25" s="27"/>
+      <c r="AO25" s="27"/>
+      <c r="AP25" s="27"/>
+      <c r="AQ25" s="27"/>
+      <c r="AR25" s="27"/>
+      <c r="AS25" s="27"/>
+      <c r="AT25" s="27"/>
+      <c r="AU25" s="27"/>
+      <c r="AV25" s="29"/>
+      <c r="AW25" s="27"/>
+      <c r="AX25" s="27"/>
+      <c r="AY25" s="27"/>
+      <c r="AZ25" s="27"/>
+      <c r="BA25" s="27"/>
+      <c r="BB25" s="27"/>
+      <c r="BC25" s="27"/>
+      <c r="BD25" s="27"/>
+      <c r="BE25" s="27"/>
+      <c r="BF25" s="27"/>
+      <c r="BG25" s="27"/>
+      <c r="BH25" s="27"/>
+      <c r="BI25" s="29"/>
+      <c r="BJ25" s="30"/>
+      <c r="BK25" s="30"/>
+      <c r="BL25" s="30"/>
+      <c r="BM25" s="30"/>
+      <c r="BN25" s="30"/>
+      <c r="BO25" s="30"/>
+      <c r="BP25" s="30"/>
+      <c r="BQ25" s="30"/>
+      <c r="BR25" s="30"/>
+      <c r="BS25" s="30"/>
+      <c r="BT25" s="30"/>
+      <c r="BU25" s="30"/>
+      <c r="BV25" s="30"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="27"/>
+      <c r="AC26" s="27"/>
+      <c r="AD26" s="27"/>
+      <c r="AE26" s="27"/>
+      <c r="AF26" s="27"/>
+      <c r="AG26" s="27"/>
+      <c r="AH26" s="27"/>
+      <c r="AI26" s="29"/>
+      <c r="AJ26" s="27"/>
+      <c r="AK26" s="27"/>
+      <c r="AL26" s="27"/>
+      <c r="AM26" s="27"/>
+      <c r="AN26" s="27"/>
+      <c r="AO26" s="27"/>
+      <c r="AP26" s="27"/>
+      <c r="AQ26" s="27"/>
+      <c r="AR26" s="27"/>
+      <c r="AS26" s="27"/>
+      <c r="AT26" s="27"/>
+      <c r="AU26" s="27"/>
+      <c r="AV26" s="29"/>
+      <c r="AW26" s="27"/>
+      <c r="AX26" s="27"/>
+      <c r="AY26" s="27"/>
+      <c r="AZ26" s="27"/>
+      <c r="BA26" s="27"/>
+      <c r="BB26" s="27"/>
+      <c r="BC26" s="27"/>
+      <c r="BD26" s="27"/>
+      <c r="BE26" s="27"/>
+      <c r="BF26" s="27"/>
+      <c r="BG26" s="27"/>
+      <c r="BH26" s="27"/>
+      <c r="BI26" s="29"/>
+      <c r="BJ26" s="30"/>
+      <c r="BK26" s="30"/>
+      <c r="BL26" s="30"/>
+      <c r="BM26" s="30"/>
+      <c r="BN26" s="30"/>
+      <c r="BO26" s="30"/>
+      <c r="BP26" s="30"/>
+      <c r="BQ26" s="30"/>
+      <c r="BR26" s="30"/>
+      <c r="BS26" s="30"/>
+      <c r="BT26" s="30"/>
+      <c r="BU26" s="30"/>
+      <c r="BV26" s="30"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="27"/>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="27"/>
+      <c r="AG27" s="27"/>
+      <c r="AH27" s="27"/>
+      <c r="AI27" s="29"/>
+      <c r="AJ27" s="27"/>
+      <c r="AK27" s="27"/>
+      <c r="AL27" s="27"/>
+      <c r="AM27" s="27"/>
+      <c r="AN27" s="27"/>
+      <c r="AO27" s="27"/>
+      <c r="AP27" s="27"/>
+      <c r="AQ27" s="27"/>
+      <c r="AR27" s="27"/>
+      <c r="AS27" s="27"/>
+      <c r="AT27" s="27"/>
+      <c r="AU27" s="27"/>
+      <c r="AV27" s="29"/>
+      <c r="AW27" s="27"/>
+      <c r="AX27" s="27"/>
+      <c r="AY27" s="27"/>
+      <c r="AZ27" s="27"/>
+      <c r="BA27" s="27"/>
+      <c r="BB27" s="27"/>
+      <c r="BC27" s="27"/>
+      <c r="BD27" s="27"/>
+      <c r="BE27" s="27"/>
+      <c r="BF27" s="27"/>
+      <c r="BG27" s="27"/>
+      <c r="BH27" s="27"/>
+      <c r="BI27" s="29"/>
+      <c r="BJ27" s="30"/>
+      <c r="BK27" s="30"/>
+      <c r="BL27" s="30"/>
+      <c r="BM27" s="30"/>
+      <c r="BN27" s="30"/>
+      <c r="BO27" s="30"/>
+      <c r="BP27" s="30"/>
+      <c r="BQ27" s="30"/>
+      <c r="BR27" s="30"/>
+      <c r="BS27" s="30"/>
+      <c r="BT27" s="30"/>
+      <c r="BU27" s="30"/>
+      <c r="BV27" s="30"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="27"/>
+      <c r="AD28" s="27"/>
+      <c r="AE28" s="27"/>
+      <c r="AF28" s="27"/>
+      <c r="AG28" s="27"/>
+      <c r="AH28" s="27"/>
+      <c r="AI28" s="29"/>
+      <c r="AJ28" s="27"/>
+      <c r="AK28" s="27"/>
+      <c r="AL28" s="27"/>
+      <c r="AM28" s="27"/>
+      <c r="AN28" s="27"/>
+      <c r="AO28" s="27"/>
+      <c r="AP28" s="27"/>
+      <c r="AQ28" s="27"/>
+      <c r="AR28" s="27"/>
+      <c r="AS28" s="27"/>
+      <c r="AT28" s="27"/>
+      <c r="AU28" s="27"/>
+      <c r="AV28" s="29"/>
+      <c r="AW28" s="27"/>
+      <c r="AX28" s="27"/>
+      <c r="AY28" s="27"/>
+      <c r="AZ28" s="27"/>
+      <c r="BA28" s="27"/>
+      <c r="BB28" s="27"/>
+      <c r="BC28" s="27"/>
+      <c r="BD28" s="27"/>
+      <c r="BE28" s="27"/>
+      <c r="BF28" s="27"/>
+      <c r="BG28" s="27"/>
+      <c r="BH28" s="27"/>
+      <c r="BI28" s="29"/>
+      <c r="BJ28" s="30"/>
+      <c r="BK28" s="30"/>
+      <c r="BL28" s="30"/>
+      <c r="BM28" s="30"/>
+      <c r="BN28" s="30"/>
+      <c r="BO28" s="30"/>
+      <c r="BP28" s="30"/>
+      <c r="BQ28" s="30"/>
+      <c r="BR28" s="30"/>
+      <c r="BS28" s="30"/>
+      <c r="BT28" s="30"/>
+      <c r="BU28" s="30"/>
+      <c r="BV28" s="30"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="27"/>
+      <c r="AC29" s="27"/>
+      <c r="AD29" s="27"/>
+      <c r="AE29" s="27"/>
+      <c r="AF29" s="27"/>
+      <c r="AG29" s="27"/>
+      <c r="AH29" s="27"/>
+      <c r="AI29" s="29"/>
+      <c r="AJ29" s="27"/>
+      <c r="AK29" s="27"/>
+      <c r="AL29" s="27"/>
+      <c r="AM29" s="27"/>
+      <c r="AN29" s="27"/>
+      <c r="AO29" s="27"/>
+      <c r="AP29" s="27"/>
+      <c r="AQ29" s="27"/>
+      <c r="AR29" s="27"/>
+      <c r="AS29" s="27"/>
+      <c r="AT29" s="27"/>
+      <c r="AU29" s="27"/>
+      <c r="AV29" s="29"/>
+      <c r="AW29" s="27"/>
+      <c r="AX29" s="27"/>
+      <c r="AY29" s="27"/>
+      <c r="AZ29" s="27"/>
+      <c r="BA29" s="27"/>
+      <c r="BB29" s="27"/>
+      <c r="BC29" s="27"/>
+      <c r="BD29" s="27"/>
+      <c r="BE29" s="27"/>
+      <c r="BF29" s="27"/>
+      <c r="BG29" s="27"/>
+      <c r="BH29" s="27"/>
+      <c r="BI29" s="29"/>
+      <c r="BJ29" s="30"/>
+      <c r="BK29" s="30"/>
+      <c r="BL29" s="30"/>
+      <c r="BM29" s="30"/>
+      <c r="BN29" s="30"/>
+      <c r="BO29" s="30"/>
+      <c r="BP29" s="30"/>
+      <c r="BQ29" s="30"/>
+      <c r="BR29" s="30"/>
+      <c r="BS29" s="30"/>
+      <c r="BT29" s="30"/>
+      <c r="BU29" s="30"/>
+      <c r="BV29" s="30"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="27"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="27"/>
+      <c r="X30" s="27"/>
+      <c r="Y30" s="27"/>
+      <c r="Z30" s="27"/>
+      <c r="AA30" s="27"/>
+      <c r="AB30" s="27"/>
+      <c r="AC30" s="27"/>
+      <c r="AD30" s="27"/>
+      <c r="AE30" s="27"/>
+      <c r="AF30" s="27"/>
+      <c r="AG30" s="27"/>
+      <c r="AH30" s="27"/>
+      <c r="AI30" s="29"/>
+      <c r="AJ30" s="27"/>
+      <c r="AK30" s="27"/>
+      <c r="AL30" s="27"/>
+      <c r="AM30" s="27"/>
+      <c r="AN30" s="27"/>
+      <c r="AO30" s="27"/>
+      <c r="AP30" s="27"/>
+      <c r="AQ30" s="27"/>
+      <c r="AR30" s="27"/>
+      <c r="AS30" s="27"/>
+      <c r="AT30" s="27"/>
+      <c r="AU30" s="27"/>
+      <c r="AV30" s="29"/>
+      <c r="AW30" s="27"/>
+      <c r="AX30" s="27"/>
+      <c r="AY30" s="27"/>
+      <c r="AZ30" s="27"/>
+      <c r="BA30" s="27"/>
+      <c r="BB30" s="27"/>
+      <c r="BC30" s="27"/>
+      <c r="BD30" s="27"/>
+      <c r="BE30" s="27"/>
+      <c r="BF30" s="27"/>
+      <c r="BG30" s="27"/>
+      <c r="BH30" s="27"/>
+      <c r="BI30" s="29"/>
+      <c r="BJ30" s="30"/>
+      <c r="BK30" s="30"/>
+      <c r="BL30" s="30"/>
+      <c r="BM30" s="30"/>
+      <c r="BN30" s="30"/>
+      <c r="BO30" s="30"/>
+      <c r="BP30" s="30"/>
+      <c r="BQ30" s="30"/>
+      <c r="BR30" s="30"/>
+      <c r="BS30" s="30"/>
+      <c r="BT30" s="30"/>
+      <c r="BU30" s="30"/>
+      <c r="BV30" s="30"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="27"/>
+      <c r="AB31" s="27"/>
+      <c r="AC31" s="27"/>
+      <c r="AD31" s="27"/>
+      <c r="AE31" s="27"/>
+      <c r="AF31" s="27"/>
+      <c r="AG31" s="27"/>
+      <c r="AH31" s="27"/>
+      <c r="AI31" s="29"/>
+      <c r="AJ31" s="27"/>
+      <c r="AK31" s="27"/>
+      <c r="AL31" s="27"/>
+      <c r="AM31" s="27"/>
+      <c r="AN31" s="27"/>
+      <c r="AO31" s="27"/>
+      <c r="AP31" s="27"/>
+      <c r="AQ31" s="27"/>
+      <c r="AR31" s="27"/>
+      <c r="AS31" s="27"/>
+      <c r="AT31" s="27"/>
+      <c r="AU31" s="27"/>
+      <c r="AV31" s="29"/>
+      <c r="AW31" s="27"/>
+      <c r="AX31" s="27"/>
+      <c r="AY31" s="27"/>
+      <c r="AZ31" s="27"/>
+      <c r="BA31" s="27"/>
+      <c r="BB31" s="27"/>
+      <c r="BC31" s="27"/>
+      <c r="BD31" s="27"/>
+      <c r="BE31" s="27"/>
+      <c r="BF31" s="27"/>
+      <c r="BG31" s="27"/>
+      <c r="BH31" s="27"/>
+      <c r="BI31" s="29"/>
+      <c r="BJ31" s="30"/>
+      <c r="BK31" s="30"/>
+      <c r="BL31" s="30"/>
+      <c r="BM31" s="30"/>
+      <c r="BN31" s="30"/>
+      <c r="BO31" s="30"/>
+      <c r="BP31" s="30"/>
+      <c r="BQ31" s="30"/>
+      <c r="BR31" s="30"/>
+      <c r="BS31" s="30"/>
+      <c r="BT31" s="30"/>
+      <c r="BU31" s="30"/>
+      <c r="BV31" s="30"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="27"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="27"/>
+      <c r="X32" s="27"/>
+      <c r="Y32" s="27"/>
+      <c r="Z32" s="27"/>
+      <c r="AA32" s="27"/>
+      <c r="AB32" s="27"/>
+      <c r="AC32" s="27"/>
+      <c r="AD32" s="27"/>
+      <c r="AE32" s="27"/>
+      <c r="AF32" s="27"/>
+      <c r="AG32" s="27"/>
+      <c r="AH32" s="27"/>
+      <c r="AI32" s="29"/>
+      <c r="AJ32" s="27"/>
+      <c r="AK32" s="27"/>
+      <c r="AL32" s="27"/>
+      <c r="AM32" s="27"/>
+      <c r="AN32" s="27"/>
+      <c r="AO32" s="27"/>
+      <c r="AP32" s="27"/>
+      <c r="AQ32" s="27"/>
+      <c r="AR32" s="27"/>
+      <c r="AS32" s="27"/>
+      <c r="AT32" s="27"/>
+      <c r="AU32" s="27"/>
+      <c r="AV32" s="29"/>
+      <c r="AW32" s="27"/>
+      <c r="AX32" s="27"/>
+      <c r="AY32" s="27"/>
+      <c r="AZ32" s="27"/>
+      <c r="BA32" s="27"/>
+      <c r="BB32" s="27"/>
+      <c r="BC32" s="27"/>
+      <c r="BD32" s="27"/>
+      <c r="BE32" s="27"/>
+      <c r="BF32" s="27"/>
+      <c r="BG32" s="27"/>
+      <c r="BH32" s="27"/>
+      <c r="BI32" s="29"/>
+      <c r="BJ32" s="30"/>
+      <c r="BK32" s="30"/>
+      <c r="BL32" s="30"/>
+      <c r="BM32" s="30"/>
+      <c r="BN32" s="30"/>
+      <c r="BO32" s="30"/>
+      <c r="BP32" s="30"/>
+      <c r="BQ32" s="30"/>
+      <c r="BR32" s="30"/>
+      <c r="BS32" s="30"/>
+      <c r="BT32" s="30"/>
+      <c r="BU32" s="30"/>
+      <c r="BV32" s="30"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="28"/>
+      <c r="U33" s="27"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="27"/>
+      <c r="X33" s="27"/>
+      <c r="Y33" s="27"/>
+      <c r="Z33" s="27"/>
+      <c r="AA33" s="27"/>
+      <c r="AB33" s="27"/>
+      <c r="AC33" s="27"/>
+      <c r="AD33" s="27"/>
+      <c r="AE33" s="27"/>
+      <c r="AF33" s="27"/>
+      <c r="AG33" s="27"/>
+      <c r="AH33" s="27"/>
+      <c r="AI33" s="29"/>
+      <c r="AJ33" s="27"/>
+      <c r="AK33" s="27"/>
+      <c r="AL33" s="27"/>
+      <c r="AM33" s="27"/>
+      <c r="AN33" s="27"/>
+      <c r="AO33" s="27"/>
+      <c r="AP33" s="27"/>
+      <c r="AQ33" s="27"/>
+      <c r="AR33" s="27"/>
+      <c r="AS33" s="27"/>
+      <c r="AT33" s="27"/>
+      <c r="AU33" s="27"/>
+      <c r="AV33" s="29"/>
+      <c r="AW33" s="27"/>
+      <c r="AX33" s="27"/>
+      <c r="AY33" s="27"/>
+      <c r="AZ33" s="27"/>
+      <c r="BA33" s="27"/>
+      <c r="BB33" s="27"/>
+      <c r="BC33" s="27"/>
+      <c r="BD33" s="27"/>
+      <c r="BE33" s="27"/>
+      <c r="BF33" s="27"/>
+      <c r="BG33" s="27"/>
+      <c r="BH33" s="27"/>
+      <c r="BI33" s="29"/>
+      <c r="BJ33" s="30"/>
+      <c r="BK33" s="30"/>
+      <c r="BL33" s="30"/>
+      <c r="BM33" s="30"/>
+      <c r="BN33" s="30"/>
+      <c r="BO33" s="30"/>
+      <c r="BP33" s="30"/>
+      <c r="BQ33" s="30"/>
+      <c r="BR33" s="30"/>
+      <c r="BS33" s="30"/>
+      <c r="BT33" s="30"/>
+      <c r="BU33" s="30"/>
+      <c r="BV33" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
